--- a/Labs/Book1.xlsx
+++ b/Labs/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adrianhouselander/Documents/Databand/DatabandWorkshop/BP2DayWorkshop/2-day workshop/Labs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69760B03-22D2-1A46-8942-6BD505F9B681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317A5800-3645-8E45-BA4E-4D24479BE1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{0AA9328C-538C-734E-8F1A-2EFB87A718F3}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Environment</t>
   </si>
   <si>
-    <t>Public ip</t>
-  </si>
-  <si>
-    <t>169.62.93.58</t>
-  </si>
-  <si>
     <t>SSH</t>
   </si>
   <si>
@@ -56,42 +50,6 @@
     <t>itzuser</t>
   </si>
   <si>
-    <t>rootpw</t>
-  </si>
-  <si>
-    <t>d4A9sE4ghSBL</t>
-  </si>
-  <si>
-    <t>52.116.88.36</t>
-  </si>
-  <si>
-    <t>y5dBtMkSyST5</t>
-  </si>
-  <si>
-    <t>169.46.34.61</t>
-  </si>
-  <si>
-    <t>srM7tVVdFUW4</t>
-  </si>
-  <si>
-    <t>169.46.34.55</t>
-  </si>
-  <si>
-    <t>wcHQmE4lXmF4</t>
-  </si>
-  <si>
-    <t>52.118.86.171</t>
-  </si>
-  <si>
-    <t>ktDCsjPsM9gW</t>
-  </si>
-  <si>
-    <t>169.62.93.54</t>
-  </si>
-  <si>
-    <t>zxp7GpFHd8AP</t>
-  </si>
-  <si>
     <t>ssh -i pem_ibmcloudvsi_download.pem itzuser@159.8.79.91 -p 2223</t>
   </si>
   <si>
@@ -111,12 +69,6 @@
   </si>
   <si>
     <t xml:space="preserve">y </t>
-  </si>
-  <si>
-    <t>161.156.207.219</t>
-  </si>
-  <si>
-    <t>uJHqUmkRW3GS</t>
   </si>
 </sst>
 </file>
@@ -485,7 +437,7 @@
   <dimension ref="A2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -503,7 +455,7 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>2223</v>
@@ -517,10 +469,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -574,102 +526,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
